--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2406.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2406.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055698592457428</v>
+        <v>1.182352423667908</v>
       </c>
       <c r="B1">
-        <v>2.203025468081477</v>
+        <v>2.189099311828613</v>
       </c>
       <c r="C1">
-        <v>9.22753454399153</v>
+        <v>4.439297199249268</v>
       </c>
       <c r="D1">
-        <v>1.856273290722571</v>
+        <v>2.705202102661133</v>
       </c>
       <c r="E1">
-        <v>0.9943294522507385</v>
+        <v>1.219675660133362</v>
       </c>
     </row>
   </sheetData>
